--- a/yourtour/documents/公司开始运营前的思考.xlsx
+++ b/yourtour/documents/公司开始运营前的思考.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="短期-生存" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
   <si>
     <t>如何“生”</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -269,14 +269,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>系统开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统运维</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>方案咨询</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -465,11 +457,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一年约60万左右</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>50-80万？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场人员*？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务/人事/行政(兼职）？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年约100万左右</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发转包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一季度要有相对完整的APP版本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +485,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +525,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -546,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,6 +585,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -921,7 +940,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -1016,7 +1035,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -1070,122 +1089,127 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D27" t="s">
-        <v>16</v>
+      <c r="D27" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="5">
-        <f>(0.8 + 0.6+0.3*3)*12</f>
-        <v>27.599999999999998</v>
-      </c>
-      <c r="F28" t="s">
-        <v>44</v>
+      <c r="D28" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="5">
+        <f>(0.8 + 0.6+0.3*3)*12*1.5</f>
+        <v>41.4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E31" s="5">
         <f>1.5*12</f>
         <v>18</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E32" s="5">
         <f>1*12</f>
         <v>12</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D31" s="6" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D32" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D34" s="2" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D36" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D37" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D35" s="2" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D40" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D41" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D36" s="2" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D42" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="6" t="s">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C43" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D39" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D40" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D41" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C42" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>105</v>
+      <c r="D43" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1197,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1213,49 +1237,47 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1265,7 +1287,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1275,136 +1297,141 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D19" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>71</v>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
